--- a/docs/team_39_Test Tracker.xlsx
+++ b/docs/team_39_Test Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manan.garg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manan.garg/Desktop/DASS/dass-project-spring-2024-team-39/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E03A6-27B6-C146-8ACD-FF302970F4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DAC5EC-1E53-9B4E-B62F-0A3655F1F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +1454,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="28.5" customHeight="1">
+    <row r="15" spans="1:26" ht="42" customHeight="1">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1476,7 +1476,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="27" customHeight="1">
+    <row r="16" spans="1:26" ht="42" customHeight="1">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1498,7 +1498,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" customHeight="1">
+    <row r="17" spans="1:9" ht="56" customHeight="1">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1520,7 +1520,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1">
+    <row r="18" spans="1:9" ht="57" customHeight="1">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1630,7 +1630,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="39" customHeight="1">
+    <row r="23" spans="1:9" ht="56" customHeight="1">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1652,7 +1652,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="39.75" customHeight="1">
+    <row r="24" spans="1:9" ht="40" customHeight="1">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1696,7 +1696,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="43.5" customHeight="1">
+    <row r="26" spans="1:9" ht="55" customHeight="1">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1718,7 +1718,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="46.5" customHeight="1">
+    <row r="27" spans="1:9" ht="56" customHeight="1">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
